--- a/downloaded_files/MDPS372_Lecture-35456.xlsx
+++ b/downloaded_files/MDPS372_Lecture-35456.xlsx
@@ -102,7 +102,7 @@
     <x:t>جيسى ارميا وديع جندي</x:t>
   </x:si>
   <x:si>
-    <x:t>Jessy Aemia Wadie</x:t>
+    <x:t>Jesse Jeremiah Wadih Jundi</x:t>
   </x:si>
   <x:si>
     <x:t>1220008</x:t>

--- a/downloaded_files/MDPS372_Lecture-35456.xlsx
+++ b/downloaded_files/MDPS372_Lecture-35456.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -436,6 +436,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS372_Lecture-35456.xlsx
+++ b/downloaded_files/MDPS372_Lecture-35456.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,15 +132,6 @@
     <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220256</x:t>
   </x:si>
   <x:si>
@@ -213,15 +204,6 @@
     <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220311</x:t>
   </x:si>
   <x:si>
@@ -427,6 +409,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Salem Eid Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>4230188</x:t>
@@ -560,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -868,7 +859,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.420625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1303,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45912.0287631134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0287631134</x:v>
+        <x:v>45912.0301464468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1358,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0301464468</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0297986458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0297986458</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45912.0290013079</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0290013079</x:v>
+        <x:v>45907.4150204861</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4150204861</x:v>
+        <x:v>45906.666103588</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.666103588</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45912.0300274306</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0300274306</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45912.0294037037</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0294037037</x:v>
+        <x:v>45912.0299355324</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0291611921</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0299355324</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0291611921</x:v>
+        <x:v>45907.4155738426</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4155738426</x:v>
+        <x:v>45927.5467511227</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45912.0292730671</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2350,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.0292730671</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2376,38 +2367,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
